--- a/Zeus/data/TSP/Results/gr17.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/gr17.xlsx_short.xlsx
@@ -136,13 +136,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="n">
-        <v>70.0</v>
+        <v>1.0</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.51216375E9</v>
+        <v>-1.512759998E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -159,19 +159,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1776.0</v>
+        <v>2239.0</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1306.0833333333335</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>1776.0</v>
+        <v>2239.0</v>
       </c>
     </row>
     <row r="3">
@@ -187,7 +187,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" t="n">
         <v>9999999.0</v>
@@ -201,52 +201,52 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="D5" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="H5" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="I5" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="J5" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="K5" t="n">
         <v>13.0</v>
       </c>
       <c r="L5" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="N5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="O5" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="P5" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
